--- a/test_data/test_data_6.xlsx
+++ b/test_data/test_data_6.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qlrqo\Documents\전공 과목\전프 (CS408)\ChatSummarizer\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/2018KAIST_FALL/CS408_전프/src/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26300" windowHeight="15820"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26300" windowHeight="15820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,16 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1248,7 +1248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1355,9 +1355,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
   </cellStyles>
@@ -1639,17 +1639,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>391</v>
       </c>
@@ -1660,18 +1660,18 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1682,26 +1682,26 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1821,31 +1821,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1853,15 +1853,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1869,15 +1869,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2021,15 +2021,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2045,23 +2045,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2093,15 +2093,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2109,39 +2109,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2167,17 +2167,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>391</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2199,18 +2199,18 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -2445,15 +2445,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2469,15 +2469,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -2533,15 +2533,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2573,15 +2573,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>108</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -2765,15 +2765,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>132</v>
       </c>
       <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -2781,12 +2781,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>134</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2799,17 +2799,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>391</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>156</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>169</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>171</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>176</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>177</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>180</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>183</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>184</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>187</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>188</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>190</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>194</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>195</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>196</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>197</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>205</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>206</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>209</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>215</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>213</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>216</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>217</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>219</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>221</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>223</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>224</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>225</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>226</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>227</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>228</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>230</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>234</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>235</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>236</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>237</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>238</v>
       </c>
@@ -3685,39 +3685,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>239</v>
       </c>
       <c r="B109" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>240</v>
       </c>
       <c r="B110" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>241</v>
       </c>
       <c r="B111" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>242</v>
       </c>
       <c r="B112" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>243</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>245</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>246</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>247</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>248</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>249</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>250</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>251</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>252</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>253</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>254</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>255</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>256</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>257</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>259</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>260</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>265</v>
       </c>
@@ -3901,15 +3901,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>266</v>
       </c>
       <c r="B136" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>267</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>268</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>270</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>271</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>272</v>
       </c>
@@ -3968,16 +3968,16 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="143.1640625" customWidth="1"/>
     <col min="3" max="3" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>391</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>274</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>283</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>284</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>286</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>288</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>289</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>290</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>291</v>
       </c>
@@ -4156,17 +4156,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>391</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>295</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>296</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>297</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>300</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>301</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -4274,15 +4274,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>303</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>305</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>306</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>307</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>308</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>309</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>311</v>
       </c>
@@ -4346,23 +4346,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>312</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>313</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>314</v>
       </c>
@@ -4370,15 +4370,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>315</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>317</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>318</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>319</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>320</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>321</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>322</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>325</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>326</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>327</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>330</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>331</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>332</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>333</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>334</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>335</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>336</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>337</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>338</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>339</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>340</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>341</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>342</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -4617,13 +4617,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>344</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>346</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>348</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>349</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>350</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>351</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>352</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>353</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>354</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>355</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>356</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>357</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>358</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>359</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>360</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>361</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>363</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>364</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>365</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>366</v>
       </c>
